--- a/study_projects/微信读书_python大数据分析与机器学习/线性回归模型/IT行业收入表.xlsx
+++ b/study_projects/微信读书_python大数据分析与机器学习/线性回归模型/IT行业收入表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VisualStudioCode\Vscode\study_projects\微信读书_python大数据分析与机器学习\线性回归模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{063B6C91-50CD-4EE3-9357-4B059B40E736}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA6D6B2-0D0F-4048-8AE9-8C67D221ED0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{171CEC90-68F3-4916-AA0D-BFABCAA9FDE6}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC762EC3-F187-41A6-91F2-CB7C809497B9}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,6 +452,30 @@
         <v>13057</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.4</v>
+      </c>
+      <c r="B7">
+        <v>14598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.5</v>
+      </c>
+      <c r="B8">
+        <v>16855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.6</v>
+      </c>
+      <c r="B9">
+        <v>18562</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
